--- a/data/trans_dic/P39A3_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P39A3_2023-Habitat-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>80,02; 93,24</t>
+          <t>80,16; 92,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>84,85; 94,04</t>
+          <t>84,78; 94,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>84,49; 92,45</t>
+          <t>84,49; 92,62</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>90,35; 94,51</t>
+          <t>90,29; 94,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>87,37; 91,49</t>
+          <t>87,32; 91,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>89,63; 92,4</t>
+          <t>89,52; 92,49</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>89,85; 93,75</t>
+          <t>89,82; 93,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>89,89; 92,83</t>
+          <t>89,99; 92,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>90,47; 92,87</t>
+          <t>90,24; 92,85</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>87,55; 92,96</t>
+          <t>87,92; 93,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>89,78; 94,85</t>
+          <t>89,5; 94,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>89,64; 93,42</t>
+          <t>89,6; 93,55</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>89,54; 93,06</t>
+          <t>89,56; 93,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>85,96; 91,76</t>
+          <t>85,33; 91,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>88,06; 91,87</t>
+          <t>87,9; 91,81</t>
         </is>
       </c>
     </row>
@@ -829,12 +829,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>90,45; 92,55</t>
+          <t>90,27; 92,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>89,35; 91,78</t>
+          <t>89,24; 91,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">

--- a/data/trans_dic/P39A3_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P39A3_2023-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -696,7 +696,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P39A3_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P39A3_2023-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>80,16; 92,93</t>
+          <t>80,02; 93,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>84,78; 94,38</t>
+          <t>84,85; 94,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>84,49; 92,62</t>
+          <t>84,49; 92,45</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>90,29; 94,49</t>
+          <t>90,35; 94,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>87,32; 91,58</t>
+          <t>87,37; 91,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>89,52; 92,49</t>
+          <t>89,63; 92,4</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>89,82; 93,96</t>
+          <t>89,85; 93,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>89,99; 92,89</t>
+          <t>89,89; 92,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>90,24; 92,85</t>
+          <t>90,47; 92,87</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>87,92; 93,41</t>
+          <t>87,55; 92,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>89,5; 94,65</t>
+          <t>89,78; 94,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>89,6; 93,55</t>
+          <t>89,64; 93,42</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>89,56; 93,19</t>
+          <t>89,54; 93,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>85,33; 91,65</t>
+          <t>85,96; 91,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>87,9; 91,81</t>
+          <t>88,06; 91,87</t>
         </is>
       </c>
     </row>
@@ -829,12 +829,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>90,27; 92,45</t>
+          <t>90,45; 92,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>89,24; 91,8</t>
+          <t>89,35; 91,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">

--- a/data/trans_dic/P39A3_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P39A3_2023-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>87,41%</t>
+          <t>92,08%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>90,38%</t>
+          <t>89,67%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>89,08%</t>
+          <t>90,83%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>80,02; 93,24</t>
+          <t>90,01; 93,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>84,85; 94,04</t>
+          <t>87,59; 91,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>84,49; 92,45</t>
+          <t>89,28; 92,16</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>92,7%</t>
+          <t>93,21%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>89,61%</t>
+          <t>91,35%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>91,09%</t>
+          <t>92,39%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>90,35; 94,51</t>
+          <t>90,3; 96,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>87,37; 91,49</t>
+          <t>89,76; 92,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>89,63; 92,4</t>
+          <t>90,8; 95,06</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>91,9%</t>
+          <t>90,55%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>91,49%</t>
+          <t>92,72%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>91,69%</t>
+          <t>91,77%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>89,85; 93,75</t>
+          <t>87,06; 92,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>89,89; 92,83</t>
+          <t>89,82; 96,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>90,47; 92,87</t>
+          <t>89,72; 94,72</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>90,88%</t>
+          <t>91,62%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>91,88%</t>
+          <t>84,87%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>91,42%</t>
+          <t>87,99%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>87,55; 92,96</t>
+          <t>89,63; 93,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>89,78; 94,85</t>
+          <t>69,81; 91,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>89,64; 93,42</t>
+          <t>75,84; 91,72</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>91,46%</t>
+          <t>92,03%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>89,72%</t>
+          <t>89,44%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>90,52%</t>
+          <t>90,71%</t>
         </is>
       </c>
     </row>
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>89,54; 93,06</t>
+          <t>90,8; 93,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>85,96; 91,76</t>
+          <t>83,01; 91,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>88,06; 91,87</t>
+          <t>87,54; 92,07</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>91,54%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>90,72%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>91,11%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>90,45; 92,55</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>89,35; 91,78</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>90,16; 91,83</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P39A3_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P39A3_2023-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>90,01; 93,85</t>
+          <t>89,91; 93,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>87,59; 91,42</t>
+          <t>87,42; 91,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>89,28; 92,16</t>
+          <t>89,51; 92,17</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>90,3; 96,55</t>
+          <t>90,6; 96,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>89,76; 92,69</t>
+          <t>89,56; 92,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>90,8; 95,06</t>
+          <t>90,77; 94,87</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>87,06; 92,76</t>
+          <t>87,61; 92,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>89,82; 96,65</t>
+          <t>89,78; 96,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>89,72; 94,72</t>
+          <t>89,67; 94,54</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>89,63; 93,19</t>
+          <t>89,81; 93,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>69,81; 91,54</t>
+          <t>66,18; 91,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>75,84; 91,72</t>
+          <t>78,62; 91,77</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>90,8; 93,68</t>
+          <t>90,76; 93,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>83,01; 91,71</t>
+          <t>82,69; 91,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>87,54; 92,07</t>
+          <t>87,25; 92,12</t>
         </is>
       </c>
     </row>
@@ -811,4 +812,462 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que sí diría que estar con dolor o malestar en el pecho es un síntoma de que a alguien le está dando un ataque al corazón</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>592</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>977</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1569</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>528808</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>551672</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1080481</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>516394; 539241</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>537867; 562550</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1064796; 1096460</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>807</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1280</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2087</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1052366</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>822860</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1875226</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1022906; 1089623</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>806771; 834638</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1842353; 1925591</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>583</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1477</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>612459</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>804738</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1417198</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>592554; 628539</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>779180; 837581</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1384798; 1460015</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1301</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2152</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>806740</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>871091</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1677831</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>790815; 820817</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>679283; 940527</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1499263; 1750011</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>2833</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>4452</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>7285</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>3000375</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3050363</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>6050738</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2958826; 3054492</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2820047; 3129949</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>5820202; 6145157</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>